--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjochum/codespace/python/excel/kalkulationstool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjochum/codespace/python/excel/excel_kalkulationstool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659CBD91-18C0-FF4A-B116-9393616B2BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94709D5A-0A70-364B-A436-0DBA522225F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Planung</t>
   </si>
   <si>
-    <t>Architektur</t>
-  </si>
-  <si>
     <t>Abriss</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Stück</t>
+  </si>
+  <si>
+    <t>Bau</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -409,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1">
         <v>250</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1">
         <v>10</v>
@@ -423,13 +423,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -437,13 +437,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -451,16 +451,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -468,13 +468,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>5</v>
